--- a/CashFlow/MPWR_cashflow.xlsx
+++ b/CashFlow/MPWR_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>588000000.0</v>
+        <v>-29503000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>559000000.0</v>
+        <v>-12422000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>418959000.0</v>
+        <v>-8510000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>265925000.0</v>
+        <v>11042000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>128754000.0</v>
+        <v>8865000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1190000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10410000.0</v>
+        <v>169000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>15686000.0</v>
+        <v>158000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>24598000.0</v>
+        <v>123234000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>17482000.0</v>
+        <v>79422000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>13656000.0</v>
+        <v>44781000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>16206000.0</v>
